--- a/tiles analysis/101824_analysis_by_image_NEW.xlsx
+++ b/tiles analysis/101824_analysis_by_image_NEW.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02469135802469136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09836065573770492</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1911764705882353</v>
+        <v>0.06521739130434782</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08235294117647059</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2068965517241379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0396039603960396</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.005952380952380952</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="D11" t="n">
-        <v>0.101010101010101</v>
+        <v>0.02547770700636943</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1392405063291139</v>
+        <v>0.05333333333333334</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.01052631578947368</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>466</v>
+        <v>1663</v>
       </c>
       <c r="C14" t="n">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="D14" t="n">
-        <v>5.825</v>
+        <v>3.671081677704194</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>971</v>
+        <v>1408</v>
       </c>
       <c r="C15" t="n">
-        <v>135</v>
+        <v>605</v>
       </c>
       <c r="D15" t="n">
-        <v>7.192592592592592</v>
+        <v>2.327272727272727</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>738</v>
+        <v>2597</v>
       </c>
       <c r="C16" t="n">
-        <v>95</v>
+        <v>571</v>
       </c>
       <c r="D16" t="n">
-        <v>7.768421052631579</v>
+        <v>4.54816112084063</v>
       </c>
     </row>
     <row r="17">
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="22">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="27">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
   </sheetData>
